--- a/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC3B97D-F15B-42E7-884B-F775EFABFDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093F337-DCAB-42BD-9722-8186BA80A011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -728,13 +728,7 @@
     <t>NMOSE_Water Uses</t>
   </si>
   <si>
-    <t>NMOSE_Consumptive Use</t>
-  </si>
-  <si>
     <t>AF</t>
-  </si>
-  <si>
-    <t>Rebecca Mitchell</t>
   </si>
   <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/NewMexico</t>
@@ -754,9 +748,6 @@
   <si>
     <t>if WGW, then Groundwater
 if WSW, then Surface Water</t>
-  </si>
-  <si>
-    <t>NM_C_ + counter</t>
   </si>
   <si>
     <t>COUNTY</t>
@@ -783,13 +774,43 @@
     <t>Surface Ground</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Did some pre-processing to create clean machine readable input file.</t>
+  </si>
+  <si>
+    <t>ose.webmaster@state.nm.us</t>
+  </si>
+  <si>
+    <t>David Hatchner (GIS Manager)</t>
+  </si>
+  <si>
+    <t>505-827-3846</t>
+  </si>
+  <si>
+    <t>https://www.ose.state.nm.us/</t>
+  </si>
+  <si>
+    <t>NMag_WS + counter</t>
+  </si>
+  <si>
+    <t>NMag_RU + counter</t>
+  </si>
+  <si>
+    <t>12/31 + ReportYearCV</t>
+  </si>
+  <si>
+    <t>01/01 +  ReportYearCV</t>
+  </si>
+  <si>
+    <t>NMOSE_Withdrawal</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>'NMOSE_Withdrawal</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,6 +1491,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1841,7 @@
         <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1841,7 +1865,7 @@
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,7 +1873,7 @@
         <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1866,7 +1890,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="103"/>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1906,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657C7D5-E8C6-4B34-858E-8D6A434024B4}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,8 +2036,12 @@
       <c r="E4" s="84" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="85"/>
+      <c r="F4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2038,10 +2066,14 @@
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="35"/>
+        <v>243</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
@@ -2065,11 +2097,15 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
@@ -2093,11 +2129,15 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
@@ -2108,7 +2148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>115</v>
       </c>
@@ -2121,11 +2161,15 @@
       <c r="D8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2180,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
@@ -2149,11 +2193,15 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
@@ -2162,7 +2210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
@@ -2175,11 +2223,15 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="111" t="s">
         <v>224</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
@@ -2203,11 +2255,15 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
@@ -2231,11 +2287,15 @@
       <c r="D12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
@@ -2259,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,10 +2417,14 @@
         <v>11</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="34"/>
+        <v>254</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2384,11 +2448,15 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="96"/>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
@@ -2415,8 +2483,12 @@
       <c r="E6" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
@@ -2443,8 +2515,12 @@
       <c r="E7" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
@@ -2469,10 +2545,14 @@
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="96"/>
+        <v>229</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
@@ -2497,10 +2577,14 @@
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="96"/>
+        <v>229</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
@@ -2527,8 +2611,12 @@
       <c r="E10" s="28">
         <v>10</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
@@ -2555,8 +2643,12 @@
       <c r="E11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
@@ -2581,10 +2673,14 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="96"/>
+        <v>255</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
@@ -2609,10 +2705,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="96"/>
+        <v>255</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>11</v>
+      </c>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
@@ -2636,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2858,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
@@ -2772,7 +2872,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="F5" s="86" t="s">
         <v>11</v>
@@ -2790,7 +2890,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
@@ -2804,7 +2904,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>11</v>
@@ -2836,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>11</v>
@@ -2868,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>11</v>
@@ -2900,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="F9" s="86" t="s">
         <v>11</v>
@@ -2932,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>11</v>
@@ -2950,7 +3050,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>177</v>
       </c>
@@ -2964,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>11</v>
@@ -2996,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F12" s="86" t="s">
         <v>11</v>
@@ -3051,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,7 +3255,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="93"/>
@@ -3323,7 +3423,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="96" t="s">
@@ -3364,7 +3464,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3467,7 +3567,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3531,7 +3631,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="100" t="s">
@@ -3561,13 +3661,13 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F7" s="97" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="98" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H7" s="94" t="s">
         <v>11</v>
@@ -3593,7 +3693,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>11</v>
@@ -3709,7 +3809,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="97" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="97"/>
       <c r="G12" s="100"/>
@@ -3821,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,7 +4207,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="16" t="s">
@@ -4134,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
@@ -4163,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="48"/>
@@ -4221,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F15" s="107" t="s">
         <v>11</v>
@@ -4259,7 +4359,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="109" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -4631,7 +4731,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="109" t="s">
@@ -4687,10 +4787,12 @@
         <v>15</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F32" s="107"/>
-      <c r="G32" s="108"/>
+      <c r="G32" s="109" t="s">
+        <v>71</v>
+      </c>
       <c r="H32" s="16" t="s">
         <v>11</v>
       </c>
@@ -4715,10 +4817,12 @@
         <v>15</v>
       </c>
       <c r="E33" s="107" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="F33" s="107"/>
-      <c r="G33" s="108"/>
+      <c r="G33" s="109" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="16" t="s">
         <v>11</v>
       </c>

--- a/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093F337-DCAB-42BD-9722-8186BA80A011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEAF05-BA13-4D53-B6D9-C85B121FA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="WaterSources" sheetId="9" r:id="rId5"/>
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
+    <sheet name="misc" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="294">
   <si>
     <t>Name</t>
   </si>
@@ -701,9 +703,6 @@
     <t>1)</t>
   </si>
   <si>
-    <t>2)</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -725,9 +724,6 @@
     <t>Water Use</t>
   </si>
   <si>
-    <t>NMOSE_Water Uses</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -741,9 +737,6 @@
   </si>
   <si>
     <t>NM</t>
-  </si>
-  <si>
-    <t>Each node in NM has a Surface water and a Ground Water reading.  Will split up.</t>
   </si>
   <si>
     <t>if WGW, then Groundwater
@@ -777,9 +770,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Did some pre-processing to create clean machine readable input file.</t>
-  </si>
-  <si>
     <t>ose.webmaster@state.nm.us</t>
   </si>
   <si>
@@ -804,13 +794,172 @@
     <t>01/01 +  ReportYearCV</t>
   </si>
   <si>
-    <t>NMOSE_Withdrawal</t>
-  </si>
-  <si>
     <t>Withdrawal</t>
   </si>
   <si>
-    <t>'NMOSE_Withdrawal</t>
+    <t>NMag_M1</t>
+  </si>
+  <si>
+    <t>NMag_V1</t>
+  </si>
+  <si>
+    <t>NMag_O1</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>AggreationInterval</t>
+  </si>
+  <si>
+    <t>Benefical Use</t>
+  </si>
+  <si>
+    <t>WaterSource Type</t>
+  </si>
+  <si>
+    <t>Public Supply</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Irrigated Agriculture</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Reservoir Evaporation</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Withdrawal_Annual_Commercial_Groundwater
+Withdrawal_Annual_Domestic_Groundwater
+Withdrawal_Annual_Industrial_Groundwater
+Withdrawal_Annual_Irrigated Agriculture_Groundwater
+Withdrawal_Annual_Livestock_Groundwater
+Withdrawal_Annual_Mining_Groundwater
+Withdrawal_Annual_Power_Groundwater
+Withdrawal_Annual_Public Supply_Groundwater
+Withdrawal_Annual_Reservoir Evaporation_Groundwater
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Withdrawal_Annual_Commercial_Surface Water
+Withdrawal_Annual_Domestic_Surface Water
+Withdrawal_Annual_Industrial_Surface Water
+Withdrawal_Annual_Irrigated Agriculture_Surface Water
+Withdrawal_Annual_Livestock_Surface Water
+Withdrawal_Annual_Mining_Surface Water
+Withdrawal_Annual_Power_Surface Water
+Withdrawal_Annual_Public Supply_Surface Water
+Withdrawal_Annual_Reservoir Evaporation_Surface Water</t>
+    </r>
+  </si>
+  <si>
+    <t>"NMag_V1"</t>
+  </si>
+  <si>
+    <t>"NMag_V2"</t>
+  </si>
+  <si>
+    <t>"NMag_V3"</t>
+  </si>
+  <si>
+    <t>"NMag_V4"</t>
+  </si>
+  <si>
+    <t>"NMag_V5"</t>
+  </si>
+  <si>
+    <t>"NMag_V6"</t>
+  </si>
+  <si>
+    <t>"NMag_V7"</t>
+  </si>
+  <si>
+    <t>"NMag_V8"</t>
+  </si>
+  <si>
+    <t>"NMag_V9"</t>
+  </si>
+  <si>
+    <t>"NMag_V10"</t>
+  </si>
+  <si>
+    <t>"NMag_V11"</t>
+  </si>
+  <si>
+    <t>"NMag_V12"</t>
+  </si>
+  <si>
+    <t>"NMag_V13"</t>
+  </si>
+  <si>
+    <t>"NMag_V14"</t>
+  </si>
+  <si>
+    <t>"NMag_V15"</t>
+  </si>
+  <si>
+    <t>"NMag_V16"</t>
+  </si>
+  <si>
+    <t>"NMag_V17"</t>
+  </si>
+  <si>
+    <t>"NMag_V18"</t>
+  </si>
+  <si>
+    <t>Domestic (self-supplied)</t>
+  </si>
+  <si>
+    <t>Livestock (self-supplied)</t>
+  </si>
+  <si>
+    <t>Commercial (self-supplied)</t>
+  </si>
+  <si>
+    <t>Industrial (self-supplied)</t>
+  </si>
+  <si>
+    <t>Mining (self-supplied)</t>
+  </si>
+  <si>
+    <t>Power (self-supplied)</t>
+  </si>
+  <si>
+    <t>There are 9 benefical uses and 2 different water source types =  18 different time series of interest.</t>
   </si>
 </sst>
 </file>
@@ -820,7 +969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +1063,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -929,7 +1104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1157,11 +1332,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,9 +1667,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1494,9 +1682,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet5" xfId="1" xr:uid="{F22A3C36-1F54-4ECB-B958-70FEB76F0786}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1810,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,7 +2030,7 @@
         <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1841,7 +2038,7 @@
         <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1857,7 +2054,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1865,16 +2062,11 @@
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" t="s">
-        <v>245</v>
-      </c>
+      <c r="A10" s="103"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="103"/>
@@ -1884,13 +2076,13 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="103"/>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1931,7 +2123,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2066,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="86" t="s">
         <v>11</v>
@@ -2193,8 +2385,8 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="111" t="s">
-        <v>225</v>
+      <c r="E9" s="110" t="s">
+        <v>224</v>
       </c>
       <c r="F9" s="86" t="s">
         <v>11</v>
@@ -2223,8 +2415,8 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>224</v>
+      <c r="E10" s="110" t="s">
+        <v>223</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>11</v>
@@ -2255,8 +2447,8 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>226</v>
+      <c r="E11" s="110" t="s">
+        <v>225</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>11</v>
@@ -2288,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="86" t="s">
         <v>11</v>
@@ -2319,18 +2511,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" style="23" bestFit="1" customWidth="1"/>
@@ -2416,8 +2608,8 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>254</v>
+      <c r="E4" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>11</v>
@@ -2481,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>11</v>
@@ -2545,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>11</v>
@@ -2577,7 +2769,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>11</v>
@@ -2673,7 +2865,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
@@ -2691,7 +2883,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
@@ -2705,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>11</v>
@@ -2737,7 +2929,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2872,7 +3064,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F5" s="86" t="s">
         <v>11</v>
@@ -2904,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>11</v>
@@ -2936,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>11</v>
@@ -2968,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" s="86" t="s">
         <v>11</v>
@@ -3000,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F9" s="86" t="s">
         <v>11</v>
@@ -3032,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>11</v>
@@ -3064,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>11</v>
@@ -3151,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570AF19E-F26B-4187-B7FA-5CACB90F90DE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="93"/>
@@ -3423,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="96" t="s">
@@ -3463,7 +3655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +3759,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3630,8 +3822,8 @@
         <v>29</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="107" t="s">
-        <v>240</v>
+      <c r="E6" s="106" t="s">
+        <v>237</v>
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="100" t="s">
@@ -3660,14 +3852,14 @@
         <v>11</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="107" t="s">
-        <v>240</v>
+      <c r="E7" s="106" t="s">
+        <v>237</v>
       </c>
       <c r="F7" s="97" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H7" s="94" t="s">
         <v>11</v>
@@ -3693,7 +3885,7 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F8" s="97" t="s">
         <v>11</v>
@@ -3809,7 +4001,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F12" s="97"/>
       <c r="G12" s="100"/>
@@ -3921,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4148,8 +4340,8 @@
       <c r="D9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="106" t="s">
-        <v>228</v>
+      <c r="E9" s="105" t="s">
+        <v>251</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="39"/>
@@ -4178,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="105" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="22"/>
@@ -4207,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="16" t="s">
@@ -4234,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
@@ -4263,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="48"/>
@@ -4290,13 +4482,13 @@
       <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="107" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -4320,13 +4512,13 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="107" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" s="107" t="s">
+      <c r="E15" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="108" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="16" t="s">
@@ -4352,14 +4544,14 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="109" t="s">
-        <v>242</v>
+      <c r="G16" s="108" t="s">
+        <v>239</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
@@ -4382,9 +4574,9 @@
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="108"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="16" t="s">
         <v>11</v>
       </c>
@@ -4408,9 +4600,9 @@
       <c r="D18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="16" t="s">
         <v>11</v>
       </c>
@@ -4434,9 +4626,9 @@
       <c r="D19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="108"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="16" t="s">
         <v>11</v>
       </c>
@@ -4460,13 +4652,13 @@
       <c r="D20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="110">
-        <v>44007</v>
-      </c>
-      <c r="F20" s="107" t="s">
+      <c r="E20" s="109">
+        <v>44683</v>
+      </c>
+      <c r="F20" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="108" t="s">
+      <c r="G20" s="107" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -4492,9 +4684,9 @@
       <c r="D21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
       <c r="H21" s="16" t="s">
         <v>11</v>
       </c>
@@ -4518,9 +4710,9 @@
       <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="16" t="s">
         <v>11</v>
       </c>
@@ -4544,9 +4736,9 @@
       <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="16" t="s">
         <v>11</v>
       </c>
@@ -4570,9 +4762,9 @@
       <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
       <c r="H24" s="16" t="s">
         <v>11</v>
       </c>
@@ -4596,9 +4788,9 @@
       <c r="D25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="16" t="s">
         <v>11</v>
       </c>
@@ -4622,9 +4814,9 @@
       <c r="D26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="16" t="s">
         <v>11</v>
       </c>
@@ -4648,9 +4840,9 @@
       <c r="D27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="16" t="s">
         <v>11</v>
       </c>
@@ -4674,9 +4866,9 @@
       <c r="D28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="16" t="s">
         <v>11</v>
       </c>
@@ -4698,13 +4890,13 @@
       <c r="D29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="107" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -4730,11 +4922,11 @@
       <c r="D30" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="109" t="s">
+      <c r="E30" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="106"/>
+      <c r="G30" s="108" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -4760,9 +4952,9 @@
       <c r="D31" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
       <c r="H31" s="16" t="s">
         <v>11</v>
       </c>
@@ -4786,11 +4978,11 @@
       <c r="D32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="107"/>
-      <c r="G32" s="109" t="s">
+      <c r="E32" s="106" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="106"/>
+      <c r="G32" s="108" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -4816,11 +5008,11 @@
       <c r="D33" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="109" t="s">
+      <c r="E33" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" s="106"/>
+      <c r="G33" s="108" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -54055,4 +54247,822 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA256CDF-729F-4FDA-988C-5259B96533C6}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" t="str">
+        <f>""""&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;""""</f>
+        <v>"Withdrawal_Annual_Commercial_Groundwater"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H19" si="0">""""&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;""""</f>
+        <v>"Withdrawal_Annual_Domestic_Groundwater"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Industrial_Groundwater"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Irrigated Agriculture_Groundwater"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Livestock_Groundwater"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Mining_Groundwater"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Power_Groundwater"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Public Supply_Groundwater"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Reservoir Evaporation_Groundwater"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Commercial_Surface Water"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Domestic_Surface Water"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Industrial_Surface Water"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Irrigated Agriculture_Surface Water"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Livestock_Surface Water"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Mining_Surface Water"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Power_Surface Water"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Public Supply_Surface Water"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Reservoir Evaporation_Surface Water"</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F19">
+    <sortCondition ref="C2:C19"/>
+    <sortCondition ref="D2:D19"/>
+    <sortCondition ref="F2:F19"/>
+    <sortCondition ref="E2:E19"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46D82A-2153-4B8A-AA43-534B1E7C0929}">
+  <dimension ref="A1:A299"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="113" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A299">
+    <sortCondition ref="A1:A299"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/NewMexico/AggregatedAmounts/NM_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\NewMexico\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BEAF05-BA13-4D53-B6D9-C85B121FA36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC412D-C6EB-4275-84C2-4E43EC15D719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="3" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -770,12 +770,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ose.webmaster@state.nm.us</t>
-  </si>
-  <si>
-    <t>David Hatchner (GIS Manager)</t>
-  </si>
-  <si>
     <t>505-827-3846</t>
   </si>
   <si>
@@ -960,6 +954,12 @@
   </si>
   <si>
     <t>There are 9 benefical uses and 2 different water source types =  18 different time series of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julie.valdez@state.nm.us </t>
+  </si>
+  <si>
+    <t>Julie Valdez</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1471,22 +1471,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,7 +1495,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,43 +1516,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1580,10 +1541,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,9 +1589,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,10 +1598,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,9 +1619,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1688,8 +1637,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,26 +1955,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="101" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="85" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="102">
+      <c r="B1" s="86">
         <v>44007</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="85" t="s">
         <v>216</v>
       </c>
       <c r="B2" t="s">
@@ -2034,7 +1982,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="85" t="s">
         <v>217</v>
       </c>
       <c r="B3" t="s">
@@ -2042,75 +1990,75 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="85" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
+      <c r="A6" s="87"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="87"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="85" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="87" t="s">
         <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+      <c r="A10" s="87"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
+      <c r="A11" s="87"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
+      <c r="A12" s="87"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
+      <c r="A14" s="87"/>
       <c r="B14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
+      <c r="A15" s="87"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
+      <c r="A16" s="87"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
+      <c r="A17" s="87"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
+      <c r="A18" s="87"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
+      <c r="A19" s="87"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
+      <c r="A20" s="87"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
+      <c r="A21" s="87"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
+      <c r="A22" s="87"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
+      <c r="A23" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2142,10 +2090,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2158,7 +2106,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2190,22 +2138,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>11</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2225,19 +2173,19 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>251</v>
+      <c r="E4" s="70" t="s">
+        <v>249</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="71" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>107</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2254,13 +2202,13 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2269,7 +2217,7 @@
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="69" t="s">
         <v>109</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2292,7 +2240,7 @@
       <c r="E6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2301,7 +2249,7 @@
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="73">
         <v>0.5</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2324,7 +2272,7 @@
       <c r="E7" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -2333,7 +2281,7 @@
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2350,13 +2298,13 @@
       <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2365,7 +2313,7 @@
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="72" t="s">
         <v>116</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2385,10 +2333,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2415,10 +2363,10 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -2427,7 +2375,7 @@
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>122</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2447,10 +2395,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -2459,7 +2407,7 @@
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>125</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2476,13 +2424,13 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -2491,7 +2439,7 @@
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>128</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2547,7 +2495,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2579,16 +2527,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="88"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>16</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2608,10 +2556,10 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2620,7 +2568,7 @@
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>130</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2646,13 +2594,13 @@
       <c r="F5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="69">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2669,22 +2617,22 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="69" t="s">
         <v>135</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2701,7 +2649,7 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -2710,13 +2658,13 @@
       <c r="F7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>138</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2733,7 +2681,7 @@
       <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -2742,13 +2690,13 @@
       <c r="F8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2765,7 +2713,7 @@
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -2774,13 +2722,13 @@
       <c r="F9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="69" t="s">
         <v>144</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2806,13 +2754,13 @@
       <c r="F10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="69">
         <v>10</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2829,7 +2777,7 @@
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
@@ -2838,13 +2786,13 @@
       <c r="F11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>150</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2861,22 +2809,22 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>153</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2893,22 +2841,22 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="81" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="69" t="s">
         <v>156</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -2928,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2938,7 +2886,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2964,7 +2912,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2996,16 +2944,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -3031,13 +2979,13 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>253</v>
+      <c r="E4" s="44" t="s">
+        <v>251</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="71" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -3050,7 +2998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
@@ -3063,10 +3011,10 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -3082,7 +3030,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
@@ -3095,10 +3043,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="86" t="s">
+      <c r="E6" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -3127,10 +3075,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -3162,7 +3110,7 @@
       <c r="E8" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -3191,10 +3139,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="86" t="s">
+      <c r="E9" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -3223,10 +3171,10 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -3255,10 +3203,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="86" t="s">
+      <c r="E11" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -3290,7 +3238,7 @@
       <c r="E12" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -3411,22 +3359,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>34658</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -3447,14 +3395,14 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3477,12 +3425,12 @@
       <c r="E5" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3505,12 +3453,12 @@
       <c r="E6" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -3527,18 +3475,18 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="35"/>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -3561,12 +3509,12 @@
       <c r="E8" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>191</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3586,15 +3534,15 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="69">
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -3618,13 +3566,13 @@
         <v>232</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>109</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3653,7 +3601,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -3674,14 +3622,14 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3713,17 +3661,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3735,17 +3683,17 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -3759,7 +3707,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3767,19 +3715,17 @@
       <c r="G4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>65</v>
       </c>
@@ -3790,28 +3736,26 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="100" t="s">
+      <c r="G5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="61" t="s">
         <v>103</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>67</v>
       </c>
@@ -3822,26 +3766,24 @@
         <v>29</v>
       </c>
       <c r="D6" s="18"/>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="100" t="s">
+      <c r="F6" s="82"/>
+      <c r="G6" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="63" t="s">
         <v>104</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>52</v>
       </c>
@@ -3852,28 +3794,26 @@
         <v>11</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="59" t="s">
         <v>99</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3884,28 +3824,26 @@
         <v>11</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="59">
         <v>48001</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>60</v>
       </c>
@@ -3916,24 +3854,22 @@
         <v>29</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="94" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>54</v>
       </c>
@@ -3944,24 +3880,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="94" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>57</v>
       </c>
@@ -3972,24 +3906,22 @@
         <v>29</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="94" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="36" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>63</v>
       </c>
@@ -4000,103 +3932,66 @@
         <v>11</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="94" t="s">
+      <c r="F12" s="82"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="59" t="s">
         <v>102</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="45"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="45"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="45"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
     </row>
@@ -4133,32 +4028,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -4172,16 +4067,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
@@ -4193,21 +4088,21 @@
       <c r="I3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19"/>
@@ -4219,21 +4114,21 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="47" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="19"/>
@@ -4245,21 +4140,21 @@
       <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
@@ -4271,21 +4166,21 @@
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19"/>
@@ -4297,21 +4192,21 @@
       <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19"/>
@@ -4323,27 +4218,27 @@
       <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="42"/>
+      <c r="E9" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="39"/>
       <c r="H9" s="16" t="s">
         <v>11</v>
@@ -4357,20 +4252,20 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="105" t="s">
-        <v>253</v>
+      <c r="E10" s="89" t="s">
+        <v>251</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="22"/>
@@ -4386,16 +4281,16 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -4413,20 +4308,20 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="105" t="s">
-        <v>252</v>
+      <c r="E12" s="89" t="s">
+        <v>250</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
@@ -4442,23 +4337,23 @@
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="44" t="s">
         <v>235</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4482,13 +4377,13 @@
       <c r="D14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="90" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -4497,7 +4392,7 @@
       <c r="I14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4512,13 +4407,13 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="91" t="s">
         <v>73</v>
       </c>
       <c r="H15" s="16" t="s">
@@ -4527,7 +4422,7 @@
       <c r="I15" s="27">
         <v>125483.1563</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="47" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4544,20 +4439,20 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="91" t="s">
         <v>239</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="47" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4574,16 +4469,16 @@
       <c r="D17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4597,19 +4492,19 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4623,19 +4518,19 @@
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4649,16 +4544,16 @@
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="109">
+      <c r="E20" s="92">
         <v>44683</v>
       </c>
-      <c r="F20" s="106" t="s">
+      <c r="F20" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="90" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -4667,7 +4562,7 @@
       <c r="I20" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4681,19 +4576,19 @@
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4710,16 +4605,16 @@
       <c r="D22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="47" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4736,16 +4631,16 @@
       <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="47" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4762,16 +4657,16 @@
       <c r="D24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="90"/>
       <c r="H24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4785,19 +4680,19 @@
       <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="47" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4814,16 +4709,16 @@
       <c r="D26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4840,16 +4735,16 @@
       <c r="D27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4863,19 +4758,19 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="90"/>
       <c r="H28" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4887,16 +4782,16 @@
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="90" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -4905,7 +4800,7 @@
       <c r="I29" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="47" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4919,14 +4814,14 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="106"/>
-      <c r="G30" s="108" t="s">
+      <c r="F30" s="83"/>
+      <c r="G30" s="91" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -4935,7 +4830,7 @@
       <c r="I30" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="47" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4949,19 +4844,19 @@
       <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="107"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="47" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4975,14 +4870,14 @@
       <c r="C32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="108" t="s">
+      <c r="E32" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="83"/>
+      <c r="G32" s="91" t="s">
         <v>71</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -4991,7 +4886,7 @@
       <c r="I32" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="47" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5005,14 +4900,14 @@
       <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="106" t="s">
-        <v>249</v>
-      </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="108" t="s">
+      <c r="E33" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" s="83"/>
+      <c r="G33" s="91" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -5021,25 +4916,25 @@
       <c r="I33" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I38" s="27"/>
@@ -5071,7 +4966,7 @@
     <row r="51" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52"/>
@@ -5119,12 +5014,12 @@
     <row r="66" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67" s="2"/>
-      <c r="D67" s="46"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68"/>
@@ -54272,13 +54167,13 @@
         <v>152</v>
       </c>
       <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" t="s">
         <v>255</v>
-      </c>
-      <c r="E1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" t="s">
-        <v>257</v>
       </c>
       <c r="H1" t="s">
         <v>155</v>
@@ -54286,19 +54181,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H2" t="str">
         <f>""""&amp;C2&amp;"_"&amp;D2&amp;"_"&amp;E2&amp;"_"&amp;F2&amp;""""</f>
@@ -54307,19 +54202,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H19" si="0">""""&amp;C3&amp;"_"&amp;D3&amp;"_"&amp;E3&amp;"_"&amp;F3&amp;""""</f>
@@ -54328,19 +54223,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -54349,19 +54244,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -54370,19 +54265,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -54391,19 +54286,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -54412,19 +54307,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
         <v>265</v>
-      </c>
-      <c r="F8" t="s">
-        <v>267</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -54433,19 +54328,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -54454,19 +54349,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -54475,16 +54370,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
         <v>109</v>
@@ -54496,16 +54391,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
         <v>109</v>
@@ -54517,16 +54412,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>261</v>
       </c>
       <c r="F13" t="s">
         <v>109</v>
@@ -54538,16 +54433,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -54559,16 +54454,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
         <v>109</v>
@@ -54580,16 +54475,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
         <v>109</v>
@@ -54601,16 +54496,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -54622,16 +54517,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>109</v>
@@ -54643,16 +54538,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -54677,7 +54572,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46D82A-2153-4B8A-AA43-534B1E7C0929}">
-  <dimension ref="A1:A299"/>
+  <dimension ref="A1:A288"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -54685,74 +54580,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="113" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="95" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="95" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112" t="s">
-        <v>292</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="95" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112" t="s">
-        <v>266</v>
+      <c r="A9" s="95" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16"/>
+      <c r="A10" s="96"/>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -55026,39 +54903,6 @@
     <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A299">
     <sortCondition ref="A1:A299"/>
